--- a/PHPExcel/Examples/02types.xlsx
+++ b/PHPExcel/Examples/02types.xlsx
@@ -574,7 +574,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>41996.95030092593</v>
+        <v>41997.10364583333</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -585,7 +585,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>41996.95030092593</v>
+        <v>41997.10364583333</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -596,7 +596,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="3">
-        <v>41996.95030092593</v>
+        <v>41997.10364583333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
